--- a/biology/Biochimie/Génétique_inverse/Génétique_inverse.xlsx
+++ b/biology/Biochimie/Génétique_inverse/Génétique_inverse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>G%C3%A9n%C3%A9tique_inverse</t>
+          <t>Génétique_inverse</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La génétique inverse est une approche génétique cherchant à comprendre la fonction de gènes donnés par l'observation des mutants correspondants. Cette approche « s'oppose » (inverse), à la démarche de génétique classique, qui, pour un phénotype mutant donné, cherche à identifier le gène responsable. Elle procède 1° soit en empêchant l'expression d'un gène choisi en utilisant soit des ARN interférents soit des ARN anti-sens, 2° soit en modifiant un gène en faisant appel à des techniques de mutagénèse dirigée telle que la mutagénèse dirigée par recombinaison homologue apparue dans les années 1990[1],[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La génétique inverse est une approche génétique cherchant à comprendre la fonction de gènes donnés par l'observation des mutants correspondants. Cette approche « s'oppose » (inverse), à la démarche de génétique classique, qui, pour un phénotype mutant donné, cherche à identifier le gène responsable. Elle procède 1° soit en empêchant l'expression d'un gène choisi en utilisant soit des ARN interférents soit des ARN anti-sens, 2° soit en modifiant un gène en faisant appel à des techniques de mutagénèse dirigée telle que la mutagénèse dirigée par recombinaison homologue apparue dans les années 1990,.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>G%C3%A9n%C3%A9tique_inverse</t>
+          <t>Génétique_inverse</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,15 +523,51 @@
           <t>Outils</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La génétique inverse a grandement profité du développement des techniques de biologie moléculaire et en particulier des outils d'invalidation de gène et de séquencage de génome.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>La génétique inverse a grandement profité du développement des techniques de biologie moléculaire et en particulier des outils d'invalidation de gène et de séquencage de génome.
 Mutagenèses aléatoires
 Tilling
 Mutagenèse dirigée
-Interférence par ARN
-Exemple de la levure
-La levure est depuis très longtemps un organisme modèle du fonctionnement des eucaryotes, en étant le premier à voir la séquence de son génome dévoilé en 1996. À la suite de cela un consortium de laboratoires européens réalisa l'inactivation systématique de tous les gènes de la levure, créant ainsi une ressource de mutants disponibles pour la communauté scientifique[3]
+Interférence par ARN</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Génétique_inverse</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/G%C3%A9n%C3%A9tique_inverse</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Outils</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Exemple de la levure</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La levure est depuis très longtemps un organisme modèle du fonctionnement des eucaryotes, en étant le premier à voir la séquence de son génome dévoilé en 1996. À la suite de cela un consortium de laboratoires européens réalisa l'inactivation systématique de tous les gènes de la levure, créant ainsi une ressource de mutants disponibles pour la communauté scientifique
 </t>
         </is>
       </c>
